--- a/Andamento_in_deg_out_deg_e_ratio_dei_grafi_analizzati.xlsx
+++ b/Andamento_in_deg_out_deg_e_ratio_dei_grafi_analizzati.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>GRAFO SINTETICO</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>NEMTSOV</t>
+  </si>
+  <si>
+    <t>INDIANA</t>
   </si>
 </sst>
 </file>
@@ -1106,11 +1109,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="185703808"/>
-        <c:axId val="234335616"/>
+        <c:axId val="197921024"/>
+        <c:axId val="197935488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185703808"/>
+        <c:axId val="197921024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1141,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="234335616"/>
+        <c:crossAx val="197935488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1146,7 +1149,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234335616"/>
+        <c:axId val="197935488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,7 +1160,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185703808"/>
+        <c:crossAx val="197921024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2179,11 +2182,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="246946816"/>
-        <c:axId val="246960896"/>
+        <c:axId val="197969792"/>
+        <c:axId val="197976064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="246946816"/>
+        <c:axId val="197969792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2211,7 +2214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246960896"/>
+        <c:crossAx val="197976064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2219,7 +2222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="246960896"/>
+        <c:axId val="197976064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,7 +2233,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="246946816"/>
+        <c:crossAx val="197969792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3252,11 +3255,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="233244928"/>
-        <c:axId val="233267200"/>
+        <c:axId val="198669824"/>
+        <c:axId val="198671744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="233244928"/>
+        <c:axId val="198669824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3284,7 +3287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233267200"/>
+        <c:crossAx val="198671744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3292,7 +3295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="233267200"/>
+        <c:axId val="198671744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3303,7 +3306,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="233244928"/>
+        <c:crossAx val="198669824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4325,11 +4328,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="293947648"/>
-        <c:axId val="294567936"/>
+        <c:axId val="198685824"/>
+        <c:axId val="198687744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="293947648"/>
+        <c:axId val="198685824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4357,7 +4360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="294567936"/>
+        <c:crossAx val="198687744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4365,7 +4368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="294567936"/>
+        <c:axId val="198687744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4376,7 +4379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293947648"/>
+        <c:crossAx val="198685824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5398,11 +5401,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69127552"/>
-        <c:axId val="159011584"/>
+        <c:axId val="198736512"/>
+        <c:axId val="198750976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69127552"/>
+        <c:axId val="198736512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5430,7 +5433,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159011584"/>
+        <c:crossAx val="198750976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5438,7 +5441,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="159011584"/>
+        <c:axId val="198750976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5449,7 +5452,1080 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69127552"/>
+        <c:crossAx val="198736512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>INDIANA</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>in_degree</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$V$3:$V$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>(out_degree + 1)</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$W$3:$W$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>547</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ratio</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$X$3:$X$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.61608775137111516</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6060606060606064</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9074074074074074</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.17857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.2045454545454546</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0357142857142858</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.8888888888888892E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.3809523809523809</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.44444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.83050847457627119</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5454545454545454</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.13513513513513514</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.7058823529411764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="220516736"/>
+        <c:axId val="220518272"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="220516736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>node</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="220518272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="220518272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="220516736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5618,6 +6694,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5913,10 +7019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:T101"/>
+  <dimension ref="B1:X101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D188" sqref="D188"/>
+    <sheetView tabSelected="1" topLeftCell="K160" workbookViewId="0">
+      <selection activeCell="P190" sqref="P190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5936,9 +7042,12 @@
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5956,8 +7065,11 @@
       <c r="R1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="V1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6003,8 +7115,17 @@
       <c r="T2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="V2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>17</v>
       </c>
@@ -6055,8 +7176,18 @@
         <f>R3/S3</f>
         <v>0</v>
       </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <f>V3/W3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>30</v>
       </c>
@@ -6107,8 +7238,18 @@
         <f t="shared" ref="T4:T67" si="3">R4/S4</f>
         <v>0.44230769230769229</v>
       </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X67" si="4">V4/W4</f>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>18</v>
       </c>
@@ -6136,7 +7277,7 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L68" si="4">J5/K5</f>
+        <f t="shared" ref="L5:L68" si="5">J5/K5</f>
         <v>0</v>
       </c>
       <c r="N5">
@@ -6159,8 +7300,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>26</v>
       </c>
@@ -6188,7 +7339,7 @@
         <v>6</v>
       </c>
       <c r="L6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="N6">
@@ -6211,8 +7362,18 @@
         <f t="shared" si="3"/>
         <v>0.87431693989071035</v>
       </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>31</v>
       </c>
@@ -6240,7 +7401,7 @@
         <v>5</v>
       </c>
       <c r="L7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N7">
@@ -6263,8 +7424,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>20</v>
       </c>
@@ -6292,7 +7463,7 @@
         <v>51</v>
       </c>
       <c r="L8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5490196078431373</v>
       </c>
       <c r="N8">
@@ -6315,8 +7486,18 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>29</v>
       </c>
@@ -6344,7 +7525,7 @@
         <v>6</v>
       </c>
       <c r="L9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="N9">
@@ -6367,8 +7548,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>24</v>
       </c>
@@ -6396,7 +7587,7 @@
         <v>33</v>
       </c>
       <c r="L10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.39393939393939392</v>
       </c>
       <c r="N10">
@@ -6419,8 +7610,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>2</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>28</v>
       </c>
@@ -6448,7 +7649,7 @@
         <v>31</v>
       </c>
       <c r="L11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4193548387096775</v>
       </c>
       <c r="N11">
@@ -6471,8 +7672,18 @@
         <f t="shared" si="3"/>
         <v>3.7142857142857144</v>
       </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>6</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>22</v>
       </c>
@@ -6500,7 +7711,7 @@
         <v>2</v>
       </c>
       <c r="L12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N12">
@@ -6523,8 +7734,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>29</v>
       </c>
@@ -6552,7 +7773,7 @@
         <v>41</v>
       </c>
       <c r="L13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4878048780487805</v>
       </c>
       <c r="N13">
@@ -6575,8 +7796,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>21</v>
       </c>
@@ -6604,7 +7835,7 @@
         <v>2</v>
       </c>
       <c r="L14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N14">
@@ -6627,8 +7858,18 @@
         <f t="shared" si="3"/>
         <v>1.2857142857142858</v>
       </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>22</v>
       </c>
@@ -6656,7 +7897,7 @@
         <v>55</v>
       </c>
       <c r="L15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.8181818181818181E-2</v>
       </c>
       <c r="N15">
@@ -6679,8 +7920,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>25</v>
       </c>
@@ -6708,7 +7959,7 @@
         <v>2</v>
       </c>
       <c r="L16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N16">
@@ -6731,8 +7982,18 @@
         <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>28</v>
       </c>
@@ -6760,7 +8021,7 @@
         <v>28</v>
       </c>
       <c r="L17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17857142857142858</v>
       </c>
       <c r="N17">
@@ -6783,8 +8044,18 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>28</v>
       </c>
@@ -6812,7 +8083,7 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N18">
@@ -6835,8 +8106,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>28</v>
       </c>
@@ -6864,7 +8145,7 @@
         <v>81</v>
       </c>
       <c r="L19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2345679012345678E-2</v>
       </c>
       <c r="N19">
@@ -6887,8 +8168,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V19">
+        <v>337</v>
+      </c>
+      <c r="W19">
+        <v>547</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="4"/>
+        <v>0.61608775137111516</v>
+      </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>26</v>
       </c>
@@ -6916,7 +8207,7 @@
         <v>2</v>
       </c>
       <c r="L20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N20">
@@ -6939,8 +8230,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>2</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>25</v>
       </c>
@@ -6968,7 +8269,7 @@
         <v>47</v>
       </c>
       <c r="L21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.53191489361702127</v>
       </c>
       <c r="N21">
@@ -6991,8 +8292,18 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>23</v>
       </c>
@@ -7020,7 +8331,7 @@
         <v>5</v>
       </c>
       <c r="L22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N22">
@@ -7043,8 +8354,18 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="V22">
+        <v>185</v>
+      </c>
+      <c r="W22">
+        <v>33</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="4"/>
+        <v>5.6060606060606064</v>
+      </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>17</v>
       </c>
@@ -7072,7 +8393,7 @@
         <v>4</v>
       </c>
       <c r="L23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
       <c r="N23">
@@ -7095,8 +8416,18 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>5</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>24</v>
       </c>
@@ -7124,7 +8455,7 @@
         <v>2</v>
       </c>
       <c r="L24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="N24">
@@ -7147,8 +8478,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V24">
+        <v>16</v>
+      </c>
+      <c r="W24">
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>31</v>
       </c>
@@ -7176,7 +8517,7 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="N25">
@@ -7199,8 +8540,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>28</v>
       </c>
@@ -7228,7 +8579,7 @@
         <v>4</v>
       </c>
       <c r="L26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="N26">
@@ -7251,8 +8602,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V26">
+        <v>103</v>
+      </c>
+      <c r="W26">
+        <v>54</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="4"/>
+        <v>1.9074074074074074</v>
+      </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>29</v>
       </c>
@@ -7280,7 +8641,7 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N27">
@@ -7303,8 +8664,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>2</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>27</v>
       </c>
@@ -7332,7 +8703,7 @@
         <v>4</v>
       </c>
       <c r="L28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="N28">
@@ -7355,8 +8726,18 @@
         <f t="shared" si="3"/>
         <v>0.63948497854077258</v>
       </c>
+      <c r="V28">
+        <v>100</v>
+      </c>
+      <c r="W28">
+        <v>40</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>22</v>
       </c>
@@ -7384,7 +8765,7 @@
         <v>2</v>
       </c>
       <c r="L29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N29">
@@ -7407,8 +8788,18 @@
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>28</v>
       </c>
@@ -7436,7 +8827,7 @@
         <v>4</v>
       </c>
       <c r="L30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
       <c r="N30">
@@ -7459,8 +8850,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V30">
+        <v>30</v>
+      </c>
+      <c r="W30">
+        <v>11</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="4"/>
+        <v>2.7272727272727271</v>
+      </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>20</v>
       </c>
@@ -7488,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="N31">
@@ -7511,8 +8912,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>30</v>
       </c>
@@ -7540,7 +8951,7 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N32">
@@ -7563,8 +8974,18 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>30</v>
       </c>
@@ -7592,7 +9013,7 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N33">
@@ -7615,8 +9036,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V33">
+        <v>5</v>
+      </c>
+      <c r="W33">
+        <v>28</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="4"/>
+        <v>0.17857142857142858</v>
+      </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>29</v>
       </c>
@@ -7644,7 +9075,7 @@
         <v>1</v>
       </c>
       <c r="L34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N34">
@@ -7667,8 +9098,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>2</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>21</v>
       </c>
@@ -7696,7 +9137,7 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N35">
@@ -7719,8 +9160,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>2</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>28</v>
       </c>
@@ -7748,7 +9199,7 @@
         <v>3</v>
       </c>
       <c r="L36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N36">
@@ -7771,8 +9222,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>2</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>27</v>
       </c>
@@ -7800,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="N37">
@@ -7823,8 +9284,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>4</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>25</v>
       </c>
@@ -7852,7 +9323,7 @@
         <v>1</v>
       </c>
       <c r="L38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="N38">
@@ -7875,8 +9346,18 @@
         <f t="shared" si="3"/>
         <v>6.45</v>
       </c>
+      <c r="V38">
+        <v>97</v>
+      </c>
+      <c r="W38">
+        <v>44</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="4"/>
+        <v>2.2045454545454546</v>
+      </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>24</v>
       </c>
@@ -7904,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N39">
@@ -7927,8 +9408,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>2</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>20</v>
       </c>
@@ -7956,7 +9447,7 @@
         <v>1</v>
       </c>
       <c r="L40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="N40">
@@ -7979,8 +9470,18 @@
         <f t="shared" si="3"/>
         <v>1.6649484536082475</v>
       </c>
+      <c r="V40">
+        <v>2</v>
+      </c>
+      <c r="W40">
+        <v>8</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>18</v>
       </c>
@@ -8008,7 +9509,7 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N41">
@@ -8031,8 +9532,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>2</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>22</v>
       </c>
@@ -8060,7 +9571,7 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="N42">
@@ -8083,8 +9594,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>2</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>26</v>
       </c>
@@ -8112,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N43">
@@ -8135,8 +9656,18 @@
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>2</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>23</v>
       </c>
@@ -8164,7 +9695,7 @@
         <v>3</v>
       </c>
       <c r="L44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="N44">
@@ -8187,8 +9718,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V44">
+        <v>42</v>
+      </c>
+      <c r="W44">
+        <v>6</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>27</v>
       </c>
@@ -8216,7 +9757,7 @@
         <v>1</v>
       </c>
       <c r="L45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N45">
@@ -8239,8 +9780,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>2</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>22</v>
       </c>
@@ -8268,7 +9819,7 @@
         <v>1</v>
       </c>
       <c r="L46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N46">
@@ -8291,8 +9842,18 @@
         <f t="shared" si="3"/>
         <v>0.43010752688172044</v>
       </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>5</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>23</v>
       </c>
@@ -8320,7 +9881,7 @@
         <v>1</v>
       </c>
       <c r="L47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N47">
@@ -8343,8 +9904,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V47">
+        <v>16</v>
+      </c>
+      <c r="W47">
+        <v>10</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="4"/>
+        <v>1.6</v>
+      </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>23</v>
       </c>
@@ -8372,7 +9943,7 @@
         <v>7</v>
       </c>
       <c r="L48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="N48">
@@ -8395,8 +9966,18 @@
         <f t="shared" si="3"/>
         <v>11.875</v>
       </c>
+      <c r="V48">
+        <v>7</v>
+      </c>
+      <c r="W48">
+        <v>4</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="4"/>
+        <v>1.75</v>
+      </c>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>24</v>
       </c>
@@ -8424,7 +10005,7 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N49">
@@ -8447,8 +10028,18 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V49">
+        <v>1</v>
+      </c>
+      <c r="W49">
+        <v>2</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>21</v>
       </c>
@@ -8476,7 +10067,7 @@
         <v>1</v>
       </c>
       <c r="L50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N50">
@@ -8499,8 +10090,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V50">
+        <v>3</v>
+      </c>
+      <c r="W50">
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>18</v>
       </c>
@@ -8528,7 +10129,7 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="N51">
@@ -8551,8 +10152,18 @@
         <f t="shared" si="3"/>
         <v>9.0909090909090912E-2</v>
       </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>2</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>22</v>
       </c>
@@ -8580,7 +10191,7 @@
         <v>1</v>
       </c>
       <c r="L52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N52">
@@ -8603,8 +10214,18 @@
         <f t="shared" si="3"/>
         <v>0.15384615384615385</v>
       </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>2</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>23</v>
       </c>
@@ -8632,7 +10253,7 @@
         <v>1</v>
       </c>
       <c r="L53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N53">
@@ -8655,8 +10276,18 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>2</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>12</v>
       </c>
@@ -8684,7 +10315,7 @@
         <v>2</v>
       </c>
       <c r="L54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="N54">
@@ -8707,8 +10338,18 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>5</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>27</v>
       </c>
@@ -8736,7 +10377,7 @@
         <v>1</v>
       </c>
       <c r="L55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="N55">
@@ -8759,8 +10400,18 @@
         <f t="shared" si="3"/>
         <v>2.3333333333333335</v>
       </c>
+      <c r="V55">
+        <v>5</v>
+      </c>
+      <c r="W55">
+        <v>9</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="4"/>
+        <v>0.55555555555555558</v>
+      </c>
     </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>21</v>
       </c>
@@ -8788,7 +10439,7 @@
         <v>1</v>
       </c>
       <c r="L56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N56">
@@ -8811,8 +10462,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V56">
+        <v>14</v>
+      </c>
+      <c r="W56">
+        <v>42</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>18</v>
       </c>
@@ -8840,7 +10501,7 @@
         <v>1</v>
       </c>
       <c r="L57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N57">
@@ -8863,8 +10524,18 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>2</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>29</v>
       </c>
@@ -8892,7 +10563,7 @@
         <v>1</v>
       </c>
       <c r="L58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N58">
@@ -8915,8 +10586,18 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>5</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>19</v>
       </c>
@@ -8944,7 +10625,7 @@
         <v>2</v>
       </c>
       <c r="L59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="N59">
@@ -8967,8 +10648,18 @@
         <f t="shared" si="3"/>
         <v>0.2857142857142857</v>
       </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>3</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>30</v>
       </c>
@@ -8996,7 +10687,7 @@
         <v>1</v>
       </c>
       <c r="L60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N60">
@@ -9019,8 +10710,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V60">
+        <v>1</v>
+      </c>
+      <c r="W60">
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>19</v>
       </c>
@@ -9048,7 +10749,7 @@
         <v>2</v>
       </c>
       <c r="L61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="N61">
@@ -9071,8 +10772,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>21</v>
       </c>
@@ -9100,7 +10811,7 @@
         <v>2</v>
       </c>
       <c r="L62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N62">
@@ -9123,8 +10834,18 @@
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>3</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>25</v>
       </c>
@@ -9152,7 +10873,7 @@
         <v>2</v>
       </c>
       <c r="L63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="N63">
@@ -9175,8 +10896,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>2</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>23</v>
       </c>
@@ -9204,7 +10935,7 @@
         <v>2</v>
       </c>
       <c r="L64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="N64">
@@ -9227,8 +10958,18 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>2</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>27</v>
       </c>
@@ -9256,7 +10997,7 @@
         <v>3</v>
       </c>
       <c r="L65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="N65">
@@ -9279,8 +11020,18 @@
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>3</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>22</v>
       </c>
@@ -9308,7 +11059,7 @@
         <v>1</v>
       </c>
       <c r="L66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N66">
@@ -9331,8 +11082,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V66">
+        <v>29</v>
+      </c>
+      <c r="W66">
+        <v>28</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="4"/>
+        <v>1.0357142857142858</v>
+      </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>21</v>
       </c>
@@ -9360,7 +11121,7 @@
         <v>1</v>
       </c>
       <c r="L67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N67">
@@ -9383,8 +11144,18 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="V67">
+        <v>4</v>
+      </c>
+      <c r="W67">
+        <v>45</v>
+      </c>
+      <c r="X67">
+        <f t="shared" si="4"/>
+        <v>8.8888888888888892E-2</v>
+      </c>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>31</v>
       </c>
@@ -9392,7 +11163,7 @@
         <v>23</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" ref="D68:D101" si="5">B68/C68</f>
+        <f t="shared" ref="D68:D101" si="6">B68/C68</f>
         <v>1.3478260869565217</v>
       </c>
       <c r="F68">
@@ -9402,7 +11173,7 @@
         <v>2</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H101" si="6">F68/G68</f>
+        <f t="shared" ref="H68:H101" si="7">F68/G68</f>
         <v>0</v>
       </c>
       <c r="J68">
@@ -9412,7 +11183,7 @@
         <v>2</v>
       </c>
       <c r="L68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="N68">
@@ -9422,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="P68">
-        <f t="shared" ref="P68:P101" si="7">N68/O68</f>
+        <f t="shared" ref="P68:P101" si="8">N68/O68</f>
         <v>1</v>
       </c>
       <c r="R68">
@@ -9432,11 +11203,21 @@
         <v>1</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T101" si="8">R68/S68</f>
-        <v>1</v>
+        <f t="shared" ref="T68:T101" si="9">R68/S68</f>
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>2</v>
+      </c>
+      <c r="X68">
+        <f t="shared" ref="X68:X101" si="10">V68/W68</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>31</v>
       </c>
@@ -9444,7 +11225,7 @@
         <v>26</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1923076923076923</v>
       </c>
       <c r="F69">
@@ -9454,7 +11235,7 @@
         <v>62</v>
       </c>
       <c r="H69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.46774193548387094</v>
       </c>
       <c r="J69">
@@ -9464,7 +11245,7 @@
         <v>1</v>
       </c>
       <c r="L69">
-        <f t="shared" ref="L69:L101" si="9">J69/K69</f>
+        <f t="shared" ref="L69:L101" si="11">J69/K69</f>
         <v>1</v>
       </c>
       <c r="N69">
@@ -9474,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="P69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="R69">
@@ -9484,11 +11265,21 @@
         <v>1</v>
       </c>
       <c r="T69">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>2</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>18</v>
       </c>
@@ -9496,7 +11287,7 @@
         <v>21</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="F70">
@@ -9506,7 +11297,7 @@
         <v>2</v>
       </c>
       <c r="H70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J70">
@@ -9516,31 +11307,41 @@
         <v>2</v>
       </c>
       <c r="L70">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
         <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-      <c r="O70">
-        <v>1</v>
-      </c>
-      <c r="P70">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R70">
-        <v>1</v>
-      </c>
-      <c r="S70">
-        <v>1</v>
-      </c>
-      <c r="T70">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>2</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>31</v>
       </c>
@@ -9548,7 +11349,7 @@
         <v>28</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.1071428571428572</v>
       </c>
       <c r="F71">
@@ -9558,7 +11359,7 @@
         <v>5</v>
       </c>
       <c r="H71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J71">
@@ -9568,31 +11369,41 @@
         <v>1</v>
       </c>
       <c r="L71">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>2</v>
+      </c>
+      <c r="T71">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>1</v>
-      </c>
-      <c r="P71">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R71">
-        <v>2</v>
-      </c>
-      <c r="S71">
-        <v>2</v>
-      </c>
-      <c r="T71">
-        <f t="shared" si="8"/>
-        <v>1</v>
+      <c r="V71">
+        <v>9</v>
+      </c>
+      <c r="W71">
+        <v>27</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>33</v>
       </c>
@@ -9600,7 +11411,7 @@
         <v>27</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="F72">
@@ -9610,7 +11421,7 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="J72">
@@ -9620,1455 +11431,1735 @@
         <v>1</v>
       </c>
       <c r="L72">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>1</v>
+      </c>
+      <c r="S72">
+        <v>2</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>2</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>24</v>
+      </c>
+      <c r="D73" s="4">
+        <f t="shared" si="6"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>2</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>1</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <v>7</v>
+      </c>
+      <c r="W73">
+        <v>2</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="10"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>24</v>
+      </c>
+      <c r="C74">
+        <v>28</v>
+      </c>
+      <c r="D74" s="4">
+        <f t="shared" si="6"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>2</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>2</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>21</v>
+      </c>
+      <c r="C75">
+        <v>33</v>
+      </c>
+      <c r="D75" s="4">
+        <f t="shared" si="6"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>1</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>7</v>
+      </c>
+      <c r="W75">
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>21</v>
+      </c>
+      <c r="C76">
+        <v>25</v>
+      </c>
+      <c r="D76" s="4">
+        <f t="shared" si="6"/>
+        <v>0.84</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>11</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>2</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>4</v>
+      </c>
+      <c r="S76">
+        <v>11</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="9"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>2</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>26</v>
+      </c>
+      <c r="C77">
+        <v>27</v>
+      </c>
+      <c r="D77" s="4">
+        <f t="shared" si="6"/>
+        <v>0.96296296296296291</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>6</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="7"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>2</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>3</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>2</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>29</v>
+      </c>
+      <c r="D78" s="4">
+        <f t="shared" si="6"/>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>2</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>1</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V78">
+        <v>69</v>
+      </c>
+      <c r="W78">
+        <v>6</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="10"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>26</v>
+      </c>
+      <c r="C79">
+        <v>28</v>
+      </c>
+      <c r="D79" s="4">
+        <f t="shared" si="6"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>4</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="N79">
+        <v>46</v>
+      </c>
+      <c r="O79">
+        <v>27</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="8"/>
+        <v>1.7037037037037037</v>
+      </c>
+      <c r="R79">
+        <v>8</v>
+      </c>
+      <c r="S79">
+        <v>10</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>2</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>22</v>
+      </c>
+      <c r="C80">
+        <v>32</v>
+      </c>
+      <c r="D80" s="4">
+        <f t="shared" si="6"/>
+        <v>0.6875</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="7"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>13</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>3</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <v>1</v>
-      </c>
-      <c r="P72">
+      <c r="V80">
+        <v>29</v>
+      </c>
+      <c r="W80">
+        <v>21</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="10"/>
+        <v>1.3809523809523809</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>22</v>
+      </c>
+      <c r="D81" s="4">
+        <f t="shared" si="6"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>4</v>
+      </c>
+      <c r="H81">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R72">
-        <v>1</v>
-      </c>
-      <c r="S72">
-        <v>2</v>
-      </c>
-      <c r="T72">
+        <v>0.25</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
+      </c>
+      <c r="O81">
+        <v>3</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R81">
+        <v>1</v>
+      </c>
+      <c r="S81">
+        <v>1</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>2</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>22</v>
+      </c>
+      <c r="C82">
+        <v>33</v>
+      </c>
+      <c r="D82" s="4">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R82">
+        <v>12</v>
+      </c>
+      <c r="S82">
+        <v>12</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>7</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>24</v>
+      </c>
+      <c r="C83">
+        <v>27</v>
+      </c>
+      <c r="D83" s="4">
+        <f t="shared" si="6"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>4</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83">
+        <v>2</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>1</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>3</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>27</v>
+      </c>
+      <c r="C84">
+        <v>23</v>
+      </c>
+      <c r="D84" s="4">
+        <f t="shared" si="6"/>
+        <v>1.173913043478261</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
+        <v>1</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="R84">
+        <v>1</v>
+      </c>
+      <c r="S84">
+        <v>3</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V84">
+        <v>1</v>
+      </c>
+      <c r="W84">
+        <v>1</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>21</v>
+      </c>
+      <c r="C85">
+        <v>27</v>
+      </c>
+      <c r="D85" s="4">
+        <f t="shared" si="6"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>2</v>
+      </c>
+      <c r="P85">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
+      <c r="R85">
+        <v>1</v>
+      </c>
+      <c r="S85">
+        <v>1</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="V85">
+        <v>4</v>
+      </c>
+      <c r="W85">
+        <v>9</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="10"/>
+        <v>0.44444444444444442</v>
+      </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <v>20</v>
-      </c>
-      <c r="C73">
-        <v>24</v>
-      </c>
-      <c r="D73" s="4">
-        <f t="shared" si="5"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="H73">
+    <row r="86" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>26</v>
+      </c>
+      <c r="C86">
+        <v>22</v>
+      </c>
+      <c r="D86" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73">
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>5</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="N86">
+        <v>2</v>
+      </c>
+      <c r="O86">
+        <v>2</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R86">
+        <v>1</v>
+      </c>
+      <c r="S86">
+        <v>2</v>
+      </c>
+      <c r="T86">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>2</v>
-      </c>
-      <c r="P73">
+        <v>0.5</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>2</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>29</v>
+      </c>
+      <c r="C87">
+        <v>29</v>
+      </c>
+      <c r="D87" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="H87">
         <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-      <c r="R73">
-        <v>1</v>
-      </c>
-      <c r="S73">
-        <v>1</v>
-      </c>
-      <c r="T73">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <v>24</v>
-      </c>
-      <c r="C74">
-        <v>28</v>
-      </c>
-      <c r="D74" s="4">
-        <f t="shared" si="5"/>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R74">
-        <v>1</v>
-      </c>
-      <c r="S74">
-        <v>2</v>
-      </c>
-      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>2</v>
+      </c>
+      <c r="P87">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
+      <c r="R87">
+        <v>4</v>
+      </c>
+      <c r="S87">
+        <v>2</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V87">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <v>2</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>21</v>
-      </c>
-      <c r="C75">
-        <v>33</v>
-      </c>
-      <c r="D75" s="4">
-        <f t="shared" si="5"/>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75">
+    <row r="88" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>20</v>
+      </c>
+      <c r="C88">
+        <v>32</v>
+      </c>
+      <c r="D88" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75">
+        <v>0.625</v>
+      </c>
+      <c r="F88">
+        <v>73</v>
+      </c>
+      <c r="G88">
+        <v>34</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="7"/>
+        <v>2.1470588235294117</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
         <v>3</v>
       </c>
-      <c r="L75">
+      <c r="P88">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R88">
+        <v>1</v>
+      </c>
+      <c r="S88">
+        <v>1</v>
+      </c>
+      <c r="T88">
         <f t="shared" si="9"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="V88">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <v>2</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>22</v>
+      </c>
+      <c r="C89">
+        <v>24</v>
+      </c>
+      <c r="D89" s="4">
+        <f t="shared" si="6"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R75">
-        <v>1</v>
-      </c>
-      <c r="S75">
-        <v>1</v>
-      </c>
-      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>4</v>
+      </c>
+      <c r="O89">
+        <v>6</v>
+      </c>
+      <c r="P89">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
+        <v>1</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V89">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <v>3</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <v>21</v>
-      </c>
-      <c r="C76">
-        <v>25</v>
-      </c>
-      <c r="D76" s="4">
-        <f t="shared" si="5"/>
-        <v>0.84</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>11</v>
-      </c>
-      <c r="H76">
+    <row r="90" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>34</v>
+      </c>
+      <c r="C90">
+        <v>24</v>
+      </c>
+      <c r="D90" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76">
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="F90">
+        <v>26</v>
+      </c>
+      <c r="G90">
+        <v>44</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="7"/>
+        <v>0.59090909090909094</v>
+      </c>
+      <c r="J90">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+      <c r="O90">
+        <v>1</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90">
+        <v>3</v>
+      </c>
+      <c r="T90">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>2</v>
-      </c>
-      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>1</v>
+      </c>
+      <c r="W90">
+        <v>1</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>14</v>
+      </c>
+      <c r="C91">
+        <v>27</v>
+      </c>
+      <c r="D91" s="4">
+        <f t="shared" si="6"/>
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R76">
-        <v>4</v>
-      </c>
-      <c r="S76">
-        <v>11</v>
-      </c>
-      <c r="T76">
+      <c r="J91">
+        <v>13</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="11"/>
+        <v>4.333333333333333</v>
+      </c>
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>1</v>
+      </c>
+      <c r="P91">
         <f t="shared" si="8"/>
-        <v>0.36363636363636365</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <v>26</v>
-      </c>
-      <c r="C77">
-        <v>27</v>
-      </c>
-      <c r="D77" s="4">
-        <f t="shared" si="5"/>
-        <v>0.96296296296296291</v>
-      </c>
-      <c r="F77">
-        <v>4</v>
-      </c>
-      <c r="G77">
-        <v>6</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <v>2</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>3</v>
-      </c>
-      <c r="S77">
-        <v>3</v>
-      </c>
-      <c r="T77">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <v>16</v>
-      </c>
-      <c r="C78">
-        <v>29</v>
-      </c>
-      <c r="D78" s="4">
-        <f t="shared" si="5"/>
-        <v>0.55172413793103448</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <v>2</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>2</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <v>1</v>
-      </c>
-      <c r="S78">
-        <v>1</v>
-      </c>
-      <c r="T78">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>26</v>
-      </c>
-      <c r="C79">
-        <v>28</v>
-      </c>
-      <c r="D79" s="4">
-        <f t="shared" si="5"/>
-        <v>0.9285714285714286</v>
-      </c>
-      <c r="F79">
-        <v>4</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79">
-        <v>4</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="9"/>
-        <v>0.25</v>
-      </c>
-      <c r="N79">
-        <v>46</v>
-      </c>
-      <c r="O79">
-        <v>27</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="7"/>
-        <v>1.7037037037037037</v>
-      </c>
-      <c r="R79">
-        <v>8</v>
-      </c>
-      <c r="S79">
-        <v>10</v>
-      </c>
-      <c r="T79">
-        <f t="shared" si="8"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B80">
-        <v>22</v>
-      </c>
-      <c r="C80">
-        <v>32</v>
-      </c>
-      <c r="D80" s="4">
-        <f t="shared" si="5"/>
-        <v>0.6875</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>3</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>13</v>
-      </c>
-      <c r="P80">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>3</v>
-      </c>
-      <c r="S80">
-        <v>1</v>
-      </c>
-      <c r="T80">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <v>20</v>
-      </c>
-      <c r="C81">
-        <v>22</v>
-      </c>
-      <c r="D81" s="4">
-        <f t="shared" si="5"/>
-        <v>0.90909090909090906</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <v>4</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="6"/>
-        <v>0.25</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N81">
-        <v>2</v>
-      </c>
-      <c r="O81">
-        <v>3</v>
-      </c>
-      <c r="P81">
-        <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R81">
-        <v>1</v>
-      </c>
-      <c r="S81">
-        <v>1</v>
-      </c>
-      <c r="T81">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B82">
-        <v>22</v>
-      </c>
-      <c r="C82">
-        <v>33</v>
-      </c>
-      <c r="D82" s="4">
-        <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>1</v>
-      </c>
-      <c r="P82">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R82">
-        <v>12</v>
-      </c>
-      <c r="S82">
-        <v>12</v>
-      </c>
-      <c r="T82">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B83">
-        <v>24</v>
-      </c>
-      <c r="C83">
-        <v>27</v>
-      </c>
-      <c r="D83" s="4">
-        <f t="shared" si="5"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <v>4</v>
-      </c>
-      <c r="K83">
-        <v>2</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="N83">
-        <v>2</v>
-      </c>
-      <c r="O83">
-        <v>2</v>
-      </c>
-      <c r="P83">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R83">
-        <v>2</v>
-      </c>
-      <c r="S83">
-        <v>1</v>
-      </c>
-      <c r="T83">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B84">
-        <v>27</v>
-      </c>
-      <c r="C84">
-        <v>23</v>
-      </c>
-      <c r="D84" s="4">
-        <f t="shared" si="5"/>
-        <v>1.173913043478261</v>
-      </c>
-      <c r="F84">
-        <v>2</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="J84">
-        <v>1</v>
-      </c>
-      <c r="K84">
-        <v>2</v>
-      </c>
-      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="R91">
+        <v>1</v>
+      </c>
+      <c r="S91">
+        <v>2</v>
+      </c>
+      <c r="T91">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
-      <c r="N84">
-        <v>2</v>
-      </c>
-      <c r="O84">
-        <v>1</v>
-      </c>
-      <c r="P84">
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>2</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>17</v>
+      </c>
+      <c r="C92">
+        <v>32</v>
+      </c>
+      <c r="D92" s="4">
+        <f t="shared" si="6"/>
+        <v>0.53125</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92">
+        <v>173</v>
+      </c>
+      <c r="H92">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="R84">
-        <v>1</v>
-      </c>
-      <c r="S84">
+        <v>2.3121387283236993E-2</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92">
+        <v>1</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>2</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>4</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>26</v>
+      </c>
+      <c r="C93">
+        <v>20</v>
+      </c>
+      <c r="D93" s="4">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
         <v>3</v>
       </c>
-      <c r="T84">
+      <c r="H93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <v>5</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="11"/>
+        <v>0.4</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>2</v>
+      </c>
+      <c r="P93">
         <f t="shared" si="8"/>
-        <v>0.33333333333333331</v>
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>51</v>
+      </c>
+      <c r="S93">
+        <v>199</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="9"/>
+        <v>0.25628140703517588</v>
+      </c>
+      <c r="V93">
+        <v>49</v>
+      </c>
+      <c r="W93">
+        <v>59</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="10"/>
+        <v>0.83050847457627119</v>
       </c>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B85">
-        <v>21</v>
-      </c>
-      <c r="C85">
-        <v>27</v>
-      </c>
-      <c r="D85" s="4">
-        <f t="shared" si="5"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="H85">
+    <row r="94" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>26</v>
+      </c>
+      <c r="C94">
+        <v>24</v>
+      </c>
+      <c r="D94" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>2</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>7</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="8"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>2</v>
+      </c>
+      <c r="T94">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>2</v>
-      </c>
-      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>0</v>
+      </c>
+      <c r="W94">
+        <v>2</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>24</v>
+      </c>
+      <c r="C95">
+        <v>26</v>
+      </c>
+      <c r="D95" s="4">
+        <f t="shared" si="6"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
         <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-      <c r="R85">
-        <v>1</v>
-      </c>
-      <c r="S85">
-        <v>1</v>
-      </c>
-      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>2</v>
+      </c>
+      <c r="P95">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>53</v>
+      </c>
+      <c r="S95">
+        <v>5</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="9"/>
+        <v>10.6</v>
+      </c>
+      <c r="V95">
+        <v>17</v>
+      </c>
+      <c r="W95">
+        <v>11</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="10"/>
+        <v>1.5454545454545454</v>
       </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B86">
+    <row r="96" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B96">
         <v>26</v>
       </c>
-      <c r="C86">
-        <v>22</v>
-      </c>
-      <c r="D86" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1818181818181819</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
+      <c r="C96">
+        <v>31</v>
+      </c>
+      <c r="D96" s="4">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J86">
-        <v>5</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="N86">
-        <v>2</v>
-      </c>
-      <c r="O86">
-        <v>2</v>
-      </c>
-      <c r="P86">
+        <v>0.83870967741935487</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>3</v>
+      </c>
+      <c r="H96">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R86">
-        <v>1</v>
-      </c>
-      <c r="S86">
-        <v>2</v>
-      </c>
-      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>2</v>
+      </c>
+      <c r="P96">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>2</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>2</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B87">
+    <row r="97" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>26</v>
+      </c>
+      <c r="C97">
+        <v>23</v>
+      </c>
+      <c r="D97" s="4">
+        <f t="shared" si="6"/>
+        <v>1.1304347826086956</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>2</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>2</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>128</v>
+      </c>
+      <c r="S97">
+        <v>248</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="9"/>
+        <v>0.5161290322580645</v>
+      </c>
+      <c r="V97">
+        <v>0</v>
+      </c>
+      <c r="W97">
+        <v>2</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>21</v>
+      </c>
+      <c r="C98">
+        <v>22</v>
+      </c>
+      <c r="D98" s="4">
+        <f t="shared" si="6"/>
+        <v>0.95454545454545459</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>3</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>4</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="N98">
+        <v>21</v>
+      </c>
+      <c r="O98">
+        <v>213</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="8"/>
+        <v>9.8591549295774641E-2</v>
+      </c>
+      <c r="R98">
+        <v>0</v>
+      </c>
+      <c r="S98">
+        <v>2</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>0</v>
+      </c>
+      <c r="W98">
+        <v>2</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>22</v>
+      </c>
+      <c r="C99">
+        <v>26</v>
+      </c>
+      <c r="D99" s="4">
+        <f t="shared" si="6"/>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>63</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="7"/>
+        <v>3.1746031746031744E-2</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>2</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>47</v>
+      </c>
+      <c r="S99">
+        <v>10</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="9"/>
+        <v>4.7</v>
+      </c>
+      <c r="V99">
+        <v>0</v>
+      </c>
+      <c r="W99">
+        <v>15</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>22</v>
+      </c>
+      <c r="C100">
         <v>29</v>
       </c>
-      <c r="C87">
-        <v>29</v>
-      </c>
-      <c r="D87" s="4">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>2</v>
-      </c>
-      <c r="H87">
+      <c r="D100" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>2</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>2</v>
-      </c>
-      <c r="P87">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-      <c r="R87">
-        <v>4</v>
-      </c>
-      <c r="S87">
-        <v>2</v>
-      </c>
-      <c r="T87">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B88">
-        <v>20</v>
-      </c>
-      <c r="C88">
-        <v>32</v>
-      </c>
-      <c r="D88" s="4">
-        <f t="shared" si="5"/>
-        <v>0.625</v>
-      </c>
-      <c r="F88">
-        <v>73</v>
-      </c>
-      <c r="G88">
-        <v>34</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="6"/>
-        <v>2.1470588235294117</v>
-      </c>
-      <c r="J88">
-        <v>2</v>
-      </c>
-      <c r="K88">
-        <v>2</v>
-      </c>
-      <c r="L88">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N88">
-        <v>2</v>
-      </c>
-      <c r="O88">
-        <v>3</v>
-      </c>
-      <c r="P88">
-        <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R88">
-        <v>1</v>
-      </c>
-      <c r="S88">
-        <v>1</v>
-      </c>
-      <c r="T88">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B89">
-        <v>22</v>
-      </c>
-      <c r="C89">
-        <v>24</v>
-      </c>
-      <c r="D89" s="4">
-        <f t="shared" si="5"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>2</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>1</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N89">
-        <v>4</v>
-      </c>
-      <c r="O89">
-        <v>6</v>
-      </c>
-      <c r="P89">
-        <f t="shared" si="7"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R89">
-        <v>2</v>
-      </c>
-      <c r="S89">
-        <v>1</v>
-      </c>
-      <c r="T89">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B90">
-        <v>34</v>
-      </c>
-      <c r="C90">
-        <v>24</v>
-      </c>
-      <c r="D90" s="4">
-        <f t="shared" si="5"/>
-        <v>1.4166666666666667</v>
-      </c>
-      <c r="F90">
-        <v>26</v>
-      </c>
-      <c r="G90">
-        <v>44</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="6"/>
-        <v>0.59090909090909094</v>
-      </c>
-      <c r="J90">
-        <v>4</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-      <c r="O90">
-        <v>1</v>
-      </c>
-      <c r="P90">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-      <c r="S90">
-        <v>3</v>
-      </c>
-      <c r="T90">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B91">
-        <v>14</v>
-      </c>
-      <c r="C91">
-        <v>27</v>
-      </c>
-      <c r="D91" s="4">
-        <f t="shared" si="5"/>
-        <v>0.51851851851851849</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>2</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>13</v>
-      </c>
-      <c r="K91">
-        <v>3</v>
-      </c>
-      <c r="L91">
-        <f t="shared" si="9"/>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="O91">
-        <v>1</v>
-      </c>
-      <c r="P91">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="R91">
-        <v>1</v>
-      </c>
-      <c r="S91">
-        <v>2</v>
-      </c>
-      <c r="T91">
-        <f t="shared" si="8"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B92">
-        <v>17</v>
-      </c>
-      <c r="C92">
-        <v>32</v>
-      </c>
-      <c r="D92" s="4">
-        <f t="shared" si="5"/>
-        <v>0.53125</v>
-      </c>
-      <c r="F92">
-        <v>4</v>
-      </c>
-      <c r="G92">
-        <v>173</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="6"/>
-        <v>2.3121387283236993E-2</v>
-      </c>
-      <c r="J92">
-        <v>1</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N92">
-        <v>2</v>
-      </c>
-      <c r="O92">
-        <v>1</v>
-      </c>
-      <c r="P92">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-      <c r="S92">
-        <v>2</v>
-      </c>
-      <c r="T92">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B93">
-        <v>26</v>
-      </c>
-      <c r="C93">
-        <v>20</v>
-      </c>
-      <c r="D93" s="4">
-        <f t="shared" si="5"/>
-        <v>1.3</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>3</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J93">
-        <v>2</v>
-      </c>
-      <c r="K93">
-        <v>5</v>
-      </c>
-      <c r="L93">
-        <f t="shared" si="9"/>
-        <v>0.4</v>
-      </c>
-      <c r="N93">
-        <v>0</v>
-      </c>
-      <c r="O93">
-        <v>2</v>
-      </c>
-      <c r="P93">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R93">
-        <v>51</v>
-      </c>
-      <c r="S93">
-        <v>199</v>
-      </c>
-      <c r="T93">
-        <f t="shared" si="8"/>
-        <v>0.25628140703517588</v>
-      </c>
-    </row>
-    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B94">
-        <v>26</v>
-      </c>
-      <c r="C94">
-        <v>24</v>
-      </c>
-      <c r="D94" s="4">
-        <f t="shared" si="5"/>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J94">
-        <v>1</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-      <c r="O94">
+        <v>0.75862068965517238</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
         <v>7</v>
       </c>
-      <c r="P94">
+      <c r="H100">
         <f t="shared" si="7"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-      <c r="S94">
-        <v>2</v>
-      </c>
-      <c r="T94">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B95">
-        <v>24</v>
-      </c>
-      <c r="C95">
-        <v>26</v>
-      </c>
-      <c r="D95" s="4">
-        <f t="shared" si="5"/>
-        <v>0.92307692307692313</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>2</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N95">
-        <v>0</v>
-      </c>
-      <c r="O95">
-        <v>2</v>
-      </c>
-      <c r="P95">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R95">
-        <v>53</v>
-      </c>
-      <c r="S95">
-        <v>5</v>
-      </c>
-      <c r="T95">
-        <f t="shared" si="8"/>
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B96">
-        <v>26</v>
-      </c>
-      <c r="C96">
-        <v>31</v>
-      </c>
-      <c r="D96" s="4">
-        <f t="shared" si="5"/>
-        <v>0.83870967741935487</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>3</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>1</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-      <c r="O96">
-        <v>2</v>
-      </c>
-      <c r="P96">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-      <c r="S96">
-        <v>2</v>
-      </c>
-      <c r="T96">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B97">
-        <v>26</v>
-      </c>
-      <c r="C97">
-        <v>23</v>
-      </c>
-      <c r="D97" s="4">
-        <f t="shared" si="5"/>
-        <v>1.1304347826086956</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J97">
-        <v>2</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="N97">
-        <v>0</v>
-      </c>
-      <c r="O97">
-        <v>2</v>
-      </c>
-      <c r="P97">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R97">
-        <v>128</v>
-      </c>
-      <c r="S97">
-        <v>248</v>
-      </c>
-      <c r="T97">
-        <f t="shared" si="8"/>
-        <v>0.5161290322580645</v>
-      </c>
-    </row>
-    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B98">
-        <v>21</v>
-      </c>
-      <c r="C98">
-        <v>22</v>
-      </c>
-      <c r="D98" s="4">
-        <f t="shared" si="5"/>
-        <v>0.95454545454545459</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>3</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>4</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="N98">
-        <v>21</v>
-      </c>
-      <c r="O98">
-        <v>213</v>
-      </c>
-      <c r="P98">
-        <f t="shared" si="7"/>
-        <v>9.8591549295774641E-2</v>
-      </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
-      <c r="S98">
-        <v>2</v>
-      </c>
-      <c r="T98">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B99">
-        <v>22</v>
-      </c>
-      <c r="C99">
-        <v>26</v>
-      </c>
-      <c r="D99" s="4">
-        <f t="shared" si="5"/>
-        <v>0.84615384615384615</v>
-      </c>
-      <c r="F99">
-        <v>2</v>
-      </c>
-      <c r="G99">
-        <v>63</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="6"/>
-        <v>3.1746031746031744E-2</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="L99">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="N99">
-        <v>0</v>
-      </c>
-      <c r="O99">
-        <v>2</v>
-      </c>
-      <c r="P99">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>47</v>
-      </c>
-      <c r="S99">
-        <v>10</v>
-      </c>
-      <c r="T99">
-        <f t="shared" si="8"/>
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B100">
-        <v>22</v>
-      </c>
-      <c r="C100">
-        <v>29</v>
-      </c>
-      <c r="D100" s="4">
-        <f t="shared" si="5"/>
-        <v>0.75862068965517238</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>7</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="6"/>
-        <v>0.14285714285714285</v>
-      </c>
       <c r="J100">
         <v>1</v>
       </c>
@@ -11076,7 +13167,7 @@
         <v>1</v>
       </c>
       <c r="L100">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N100">
@@ -11086,7 +13177,7 @@
         <v>9</v>
       </c>
       <c r="P100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="R100">
@@ -11096,11 +13187,21 @@
         <v>3</v>
       </c>
       <c r="T100">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>5</v>
+      </c>
+      <c r="W100">
+        <v>37</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="10"/>
+        <v>0.13513513513513514</v>
       </c>
     </row>
-    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>23</v>
       </c>
@@ -11108,7 +13209,7 @@
         <v>31</v>
       </c>
       <c r="D101" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.74193548387096775</v>
       </c>
       <c r="F101">
@@ -11118,7 +13219,7 @@
         <v>6</v>
       </c>
       <c r="H101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="J101">
@@ -11128,7 +13229,7 @@
         <v>3</v>
       </c>
       <c r="L101">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N101">
@@ -11138,7 +13239,7 @@
         <v>2</v>
       </c>
       <c r="P101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R101">
@@ -11148,8 +13249,18 @@
         <v>4</v>
       </c>
       <c r="T101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.75</v>
+      </c>
+      <c r="V101">
+        <v>29</v>
+      </c>
+      <c r="W101">
+        <v>17</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="10"/>
+        <v>1.7058823529411764</v>
       </c>
     </row>
   </sheetData>
